--- a/biology/Zoologie/Yoshio_Abe/Yoshio_Abe.xlsx
+++ b/biology/Zoologie/Yoshio_Abe/Yoshio_Abe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yoshio Abe (阿部 余四男, Abe Yoshio?), né le 3 janvier 1891 - décédé le 22 avril 1960, est professeur de zoologie à l'université de Karahuto.
 Il est le premier scientifique japonais à étudier le genre Kinorhyncha.  
-L’espèce Dracoderes abei est nommée en son honneur[1].
+L’espèce Dracoderes abei est nommée en son honneur.
 L’espèce de Chiroptera à moustaches Myotis abei (Yoshikura 1944) et de Hynobius abei sont nommées en son honneur par Ikio Satō, l'un de ses étudiants.
 </t>
         </is>
